--- a/rhla_analysis/rhla1_6_normal_result/k0.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k0.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01358329123262978</v>
+        <v>0.01358329123262986</v>
       </c>
       <c r="B2" t="n">
         <v>0.1516181593591551</v>
@@ -466,26 +466,26 @@
         <v>0.07128309572301425</v>
       </c>
       <c r="D2" t="n">
-        <v>11.16210767791962</v>
+        <v>11.16210767791955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01664094241349917</v>
+        <v>0.0166409424134991</v>
       </c>
       <c r="B3" t="n">
-        <v>0.143927966674534</v>
+        <v>0.1439279666745341</v>
       </c>
       <c r="C3" t="n">
         <v>0.06856754921928038</v>
       </c>
       <c r="D3" t="n">
-        <v>8.649027386680896</v>
+        <v>8.649027386680936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02595023364756714</v>
+        <v>0.02595023364756742</v>
       </c>
       <c r="B4" t="n">
         <v>0.13399908155336</v>
@@ -494,26 +494,26 @@
         <v>0.06177868295994569</v>
       </c>
       <c r="D4" t="n">
-        <v>5.163694607656164</v>
+        <v>5.16369460765611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02523762350229905</v>
+        <v>0.02523762350229926</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1778802994731382</v>
+        <v>0.1778802994731383</v>
       </c>
       <c r="C5" t="n">
         <v>0.06720977596741344</v>
       </c>
       <c r="D5" t="n">
-        <v>7.048219078826262</v>
+        <v>7.048219078826206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0190864324467812</v>
+        <v>0.0190864324467813</v>
       </c>
       <c r="B6" t="n">
         <v>0.1472274434651638</v>
@@ -522,12 +522,12 @@
         <v>0.08689748811948404</v>
       </c>
       <c r="D6" t="n">
-        <v>7.713722502918174</v>
+        <v>7.713722502918138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01932138965678903</v>
+        <v>0.01932138965678896</v>
       </c>
       <c r="B7" t="n">
         <v>0.1351772650952318</v>
@@ -536,12 +536,12 @@
         <v>0.07739307535641547</v>
       </c>
       <c r="D7" t="n">
-        <v>6.996249622642127</v>
+        <v>6.996249622642155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.009772081550419698</v>
+        <v>0.0097720815504197</v>
       </c>
       <c r="B8" t="n">
         <v>0.157171653480377</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.008085201644851346</v>
+        <v>0.008085201644851343</v>
       </c>
       <c r="B9" t="n">
         <v>0.175297425884768</v>
@@ -564,12 +564,12 @@
         <v>0.05940257976917854</v>
       </c>
       <c r="D9" t="n">
-        <v>21.68126827070508</v>
+        <v>21.68126827070509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01215580280546317</v>
+        <v>0.01215580280546322</v>
       </c>
       <c r="B10" t="n">
         <v>0.1821294352534886</v>
@@ -578,12 +578,12 @@
         <v>0.06245756958587916</v>
       </c>
       <c r="D10" t="n">
-        <v>14.98292117503208</v>
+        <v>14.98292117503202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01332326032736492</v>
+        <v>0.01332326032736491</v>
       </c>
       <c r="B11" t="n">
         <v>0.1460656761716106</v>
@@ -592,7 +592,7 @@
         <v>0.07060420909708079</v>
       </c>
       <c r="D11" t="n">
-        <v>10.96320814745346</v>
+        <v>10.96320814745347</v>
       </c>
     </row>
   </sheetData>
